--- a/doc/wyliczenia.xlsx
+++ b/doc/wyliczenia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Development\nxtBikeMonitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Development\nxtBikeMonitor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>VCC</t>
   </si>
@@ -63,6 +63,42 @@
   </si>
   <si>
     <t>Minimalny rezystor</t>
+  </si>
+  <si>
+    <t>Wyliczenia Temperatury</t>
+  </si>
+  <si>
+    <t>Analog value</t>
+  </si>
+  <si>
+    <t>V_NTC</t>
+  </si>
+  <si>
+    <t>R_NTC</t>
+  </si>
+  <si>
+    <t>LOG(R_NTC)</t>
+  </si>
+  <si>
+    <t>Temp K</t>
+  </si>
+  <si>
+    <t>Temp C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TempK</t>
+  </si>
+  <si>
+    <t>TempC</t>
   </si>
 </sst>
 </file>
@@ -107,17 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0"/>
@@ -404,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -468,6 +494,12 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f>B22*B9/(B2-B22)</f>
+        <v>296.80636352843408</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
@@ -513,7 +545,7 @@
         <v>515.47118644067791</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -522,9 +554,129 @@
         <v>417.0478854698041</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>10000/(1024/B21-1)</f>
+        <v>98.619329388560146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f>B21/1024</f>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="E22">
+        <f>LOG(E21)</f>
+        <v>1.9939620450026827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f>B9*((1024/B21-1))</f>
+        <v>10140000</v>
+      </c>
+      <c r="C23">
+        <f>(B9*B22)/(B2-B22)</f>
+        <v>296.80636352843408</v>
+      </c>
+      <c r="E23">
+        <f>1 / (0.001129148 + (0.000234125 + (0.0000000876741 * E22 * E22 ))* E22 )</f>
+        <v>626.29979783117517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f>LOG(B23)</f>
+        <v>7.0060379549973169</v>
+      </c>
+      <c r="E24">
+        <f>E23-273.15</f>
+        <v>353.14979783117519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <f>1/(0.001129148 + (0.000234125*B24 + (0.0000000876741 * B24 * B24 * B24 )))</f>
+        <v>357.19557699290641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f>B25-273.15</f>
+        <v>84.045576992906433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1.129148E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>2.3412500000000001E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>8.76741E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <f>1/(B29+B30*B24+B31*B24*B24*B24)</f>
+        <v>357.19557699290647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <f>B32-273.15</f>
+        <v>84.04557699290649</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$12&gt;0.8</formula>
     </cfRule>
   </conditionalFormatting>
